--- a/docs/Classifcation Reports/LinearSVC()_4.xlsx
+++ b/docs/Classifcation Reports/LinearSVC()_4.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.840032154340836</v>
+        <v>0.8634222919937206</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9439927732610659</v>
+        <v>0.9458297506448839</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8889834113143342</v>
+        <v>0.9027492819039803</v>
       </c>
       <c r="E2" t="n">
-        <v>1107</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.962178517397882</v>
+        <v>0.9581320450885669</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9366715758468336</v>
+        <v>0.9239130434782609</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9492537313432836</v>
+        <v>0.9407114624505928</v>
       </c>
       <c r="E3" t="n">
-        <v>679</v>
+        <v>644</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8599735799207398</v>
+        <v>0.8534031413612565</v>
       </c>
       <c r="C4" t="n">
-        <v>0.821969696969697</v>
+        <v>0.8402061855670103</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8405422853453842</v>
+        <v>0.8467532467532468</v>
       </c>
       <c r="E4" t="n">
-        <v>792</v>
+        <v>776</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8597122302158273</v>
+        <v>0.8256227758007118</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6602209944751382</v>
+        <v>0.6498599439775911</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7468750000000001</v>
+        <v>0.7272727272727274</v>
       </c>
       <c r="E5" t="n">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8744897959183674</v>
+        <v>0.8772108843537415</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8744897959183674</v>
+        <v>0.8772108843537415</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8744897959183674</v>
+        <v>0.8772108843537415</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8744897959183674</v>
+        <v>0.8772108843537415</v>
       </c>
     </row>
     <row r="7">
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8804741204688212</v>
+        <v>0.8751450635610639</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8407137601381837</v>
+        <v>0.8399522309169365</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8564136070007505</v>
+        <v>0.8543716795951368</v>
       </c>
       <c r="E7" t="n">
         <v>2940</v>
@@ -576,13 +576,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8760373165999398</v>
+        <v>0.8769337861506541</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8744897959183674</v>
+        <v>0.8772108843537415</v>
       </c>
       <c r="D8" t="n">
-        <v>0.872355836700885</v>
+        <v>0.8749770339419707</v>
       </c>
       <c r="E8" t="n">
         <v>2940</v>
